--- a/NextGenPortflio.xlsx
+++ b/NextGenPortflio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I575678\OneDrive - SAP SE\Desktop\Java dsa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I575678\OneDrive - SAP SE\Desktop\Java dsa\Ultimate_Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E119BC85-D4F6-44E5-B537-BB0C229925F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24069285-AA17-4DBD-927F-80DCED8105B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96BCF940-7AD6-4C1B-B546-0DECCEC20FF2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Nagabhushan</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Sno.</t>
   </si>
   <si>
-    <t>Skills Tab</t>
-  </si>
-  <si>
     <t>Make reusable card component</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Add section for both developers</t>
   </si>
   <si>
-    <t>Rate Limiter</t>
-  </si>
-  <si>
     <t>URL shortner</t>
   </si>
   <si>
@@ -75,6 +69,30 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Rate Limiter(Initial)</t>
+  </si>
+  <si>
+    <t>Project Tab</t>
+  </si>
+  <si>
+    <t>Verical Scaling</t>
+  </si>
+  <si>
+    <t>Horizontal Scaling</t>
+  </si>
+  <si>
+    <t>Maintanence</t>
+  </si>
+  <si>
+    <t>Accomodation</t>
+  </si>
+  <si>
+    <t>Tradeoff analysis and simple implementation( 2 atleast)</t>
+  </si>
+  <si>
+    <t>Rate Limiter(With types and UI)(2 atleast)(subscription model? Less window time)</t>
   </si>
 </sst>
 </file>
@@ -90,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,6 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -116,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -127,6 +151,7 @@
     <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,21 +500,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980D0630-C49D-4B02-A433-5485A7D66616}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.453125" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -500,56 +528,74 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E5" s="3">
         <v>11383</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -561,6 +607,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D51F5E5454488644BE5FC0B411BA44AD" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e507186f8a16792f1adc1af32dcd6b95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="215eb94a-d914-42e5-879e-416fb8dd8e21" xmlns:ns4="5fe34648-2254-43c8-8817-6be29735b2c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d72d35de097aa6df16220eceefa9beec" ns3:_="" ns4:_="">
     <xsd:import namespace="215eb94a-d914-42e5-879e-416fb8dd8e21"/>
@@ -799,15 +854,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -817,6 +863,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA3A0DC1-4C0A-4319-9AF0-B465FF226E98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B382F9F-255C-4FEA-A431-B67CFEE4D859}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -835,14 +889,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA3A0DC1-4C0A-4319-9AF0-B465FF226E98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DEB91B2-4143-4CF2-8DB1-CCA60FC4BBBC}">
   <ds:schemaRefs>
